--- a/tests/seq2seq-2/test-answer-sheet.xlsx
+++ b/tests/seq2seq-2/test-answer-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\my-research\results\thesis listening test\VC\seq2seq-test2\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646E438-B3F7-4BD1-A612-5FD781495346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29719B0F-AB6F-4207-B939-1A7F17717E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +186,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,52 +558,52 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -614,25 +617,56 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
